--- a/Mendoza Velazquez Laura Elena 20212.xlsx
+++ b/Mendoza Velazquez Laura Elena 20212.xlsx
@@ -6331,7 +6331,7 @@
         <v>709</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11">
